--- a/autoConditions/train2Block1Test.xlsx
+++ b/autoConditions/train2Block1Test.xlsx
@@ -469,108 +469,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainaudio/13_kopopi.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainaudio/26_kapako.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+          <t>pngimages/26_pineapple.png</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>trainaudio/10_tokiti.wav</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pngimages/100_bicycle.png</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>trainaudio/18_popata.wav</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>pngimages/18_donut.png</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>trainaudio/24_takopa.wav</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pngimages/24_banana.png</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>trainaudio/23_patoko.wav</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pngimages/23_lemon.png</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>trainaudio/14_pokoto.wav</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>pngimages/14_coffee.png</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trainaudio/15_kopota.wav</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pngimages/15_barrel.png</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainaudio/26_kapako.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,79 +571,67 @@
           <t>pngimages/11_compass.png</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E5" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/24_takopa.wav</t>
+          <t>trainaudio/18_popata.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainaudio/22_kakoki.wav</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+          <t>pngimages/22_egg.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/15_kopota.wav</t>
+          <t>trainaudio/14_pokoto.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainaudio/05_titopo.wav</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+          <t>pngimages/05_megaphone.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -671,87 +647,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainaudio/13_kopopi.wav</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+          <t>pngimages/13_toast.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainaudio/22_kakoki.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainaudio/10_tokiti.wav</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+          <t>pngimages/100_bicycle.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainaudio/05_titopo.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainaudio/23_patoko.wav</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+          <t>pngimages/23_lemon.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train2Block1Test.xlsx
+++ b/autoConditions/train2Block1Test.xlsx
@@ -469,22 +469,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,78 +497,78 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>trainaudio/11_tokiko.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -581,22 +581,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -609,22 +609,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -637,50 +637,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainaudio/11_tokiko.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -693,29 +693,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train2Block1Test.xlsx
+++ b/autoConditions/train2Block1Test.xlsx
@@ -469,50 +469,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito1.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi1.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -525,106 +525,106 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika1.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi1.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/15_kopota3.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti2.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi2.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito1.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi1.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -637,50 +637,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi2.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika1.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti2.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -703,19 +703,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi1.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
